--- a/data_year/zb/资源和环境/废气中主要污染物排放.xlsx
+++ b/data_year/zb/资源和环境/废气中主要污染物排放.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2254.9</v>
+        <v>2185</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -471,249 +471,188 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2549.4</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>2217.90816901</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2404.2744886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1278.8255366</v>
+      </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2588.8</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>2118</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2337.7617223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1235.7747786</v>
+      </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2468</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>2043.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2227.35874475</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1278.1410759</v>
+      </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2321</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>1974.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2078.00153363</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1740.75075824</v>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2214</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>1859.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1851.02419087</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1538.0132697</v>
+      </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2185</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>854.8932151568951</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1503.30449343127</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1608.01081705957</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2217.90816901</v>
+        <v>610.837594811622</v>
       </c>
       <c r="C9" t="n">
-        <v>2404.2744886</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1278.8255366</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>1348.39902447667</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1284.91682868873</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2118</v>
+        <v>516.116850878911</v>
       </c>
       <c r="C10" t="n">
-        <v>2337.7617223</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1235.7747786</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>1288.43759331042</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1132.25536292425</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2043.9</v>
+        <v>457.285833165498</v>
       </c>
       <c r="C11" t="n">
-        <v>2227.35874475</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1278.1410759</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>1233.85175234643</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1088.47656836225</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1974.4</v>
+        <v>318.2201411643</v>
       </c>
       <c r="C12" t="n">
-        <v>2078.00153363</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1740.75075824</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>1019.6558</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>611.3961</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1859.1</v>
+        <v>274.7809924434</v>
       </c>
       <c r="C13" t="n">
-        <v>1851.02419087</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1538.0132697</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>854.8932151568951</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1503.30449343127</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>1608.01081705957</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>610.837594811622</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1348.39902447667</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>1284.91682868873</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>516.116850878911</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1288.43759331042</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1132.25536292425</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>457.285833165498</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1233.85175234643</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1088.47656836225</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>318.2201411643</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1019.6558</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>611.3961</v>
+        <v>988.3782761433</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>537.5976949039</v>
       </c>
     </row>
   </sheetData>
